--- a/biology/Zoologie/Apoidea/Apoidea.xlsx
+++ b/biology/Zoologie/Apoidea/Apoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les apoïdes (Apoidea) sont une super-famille d'insectes hyménoptères du sous-ordre des apocrites. Elle regroupe les guêpes dites apoïdes (à forme d'abeille) et les abeilles, qui en sont issues.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des familles actuelles selon ITIS      (mai 2017)[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des familles actuelles selon ITIS      (mai 2017) : 
 Au sein des Spheciformes, c'est-à-dire les guêpes apoïdes :
 Ampulicidae Shuckard, 1840 - les guêpes à blattes
 Crabronidae Latreille, 1802 – la famille paraphylétique dont sont issues les abeilles
@@ -561,11 +575,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au sein des aculéates
-Phylogénie des hyménoptères aculéates d'après Johnson et al. (2013)[2] :
-Dans la super-famille
-Phylogénie des hyménoptères apoïdes actuels d'après Debevic et al, (2012)[3] :
-Cet arbre phylogénétique est basé sur Sann et al., 2018, qui ont utilisé la phylogénomie pour démontrer que les abeilles (Anthophila) et les Sphecidae sont issues de l'ancien "Crabronidae", qui est donc paraphylétique, et qu'ils ont suggéré de diviser en plusieurs familles ; l'ancienne famille des Heterogynaidae niche au sein des Bembicidae, tels que définis par ces auteurs[4]. Ces résultats diffèrent dans plusieurs détails des études publiées par deux autres groupes d'auteurs en 2017, bien que les trois études démontrent un "Crabronidae" paraphylétique[5],[6].
+          <t>Au sein des aculéates</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des hyménoptères aculéates d'après Johnson et al. (2013) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apoidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apoidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dans la super-famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des hyménoptères apoïdes actuels d'après Debevic et al, (2012) :
+Cet arbre phylogénétique est basé sur Sann et al., 2018, qui ont utilisé la phylogénomie pour démontrer que les abeilles (Anthophila) et les Sphecidae sont issues de l'ancien "Crabronidae", qui est donc paraphylétique, et qu'ils ont suggéré de diviser en plusieurs familles ; l'ancienne famille des Heterogynaidae niche au sein des Bembicidae, tels que définis par ces auteurs. Ces résultats diffèrent dans plusieurs détails des études publiées par deux autres groupes d'auteurs en 2017, bien que les trois études démontrent un "Crabronidae" paraphylétique,.
 </t>
         </is>
       </c>
